--- a/artfynd/A 221-2025 artfynd.xlsx
+++ b/artfynd/A 221-2025 artfynd.xlsx
@@ -1399,7 +1399,7 @@
         <v>129173748</v>
       </c>
       <c r="B8" t="n">
-        <v>57890</v>
+        <v>58043</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
